--- a/tools/res_by_adv_main/output.xlsx
+++ b/tools/res_by_adv_main/output.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lichangshi\the_error_analysis_of_deep_binary_classification\code_git\binaryclassification\tools\res_by_adv_main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E170BDEB-8701-46EF-A2C0-C65012AFE870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17810" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="adv_cactusaerialphotos_sigmoid" sheetId="1" r:id="rId1"/>
@@ -19,24 +13,26 @@
     <sheet name="adv_catanddog_sigmoid_" sheetId="3" r:id="rId4"/>
     <sheet name="nat_catanddog_sigmoid_" sheetId="4" r:id="rId5"/>
     <sheet name="catanddog_log" sheetId="6" r:id="rId6"/>
-    <sheet name="ShellsorPebbles_log" sheetId="7" r:id="rId7"/>
+    <sheet name="adv_ShellsorPebbles_sigmoid_" sheetId="9" r:id="rId7"/>
+    <sheet name="nat_ShellsorPebbles_sigmoid_" sheetId="8" r:id="rId8"/>
+    <sheet name="ShellsorPebbles_log" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -49,12 +45,170 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,8 +221,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -76,31 +416,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -387,21 +1016,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1">
         <v>1</v>
       </c>
@@ -418,52 +1047,52 @@
         <v>13.6666666666667</v>
       </c>
       <c r="F1">
-        <v>0.50015620263417604</v>
+        <v>0.500156202634176</v>
       </c>
       <c r="G1">
         <v>75</v>
       </c>
       <c r="H1">
-        <v>0.50012972327073402</v>
+        <v>0.500129723270734</v>
       </c>
       <c r="I1">
         <v>75</v>
       </c>
       <c r="J1">
-        <v>0.50014452103773799</v>
+        <v>0.500144521037738</v>
       </c>
       <c r="K1">
         <v>75</v>
       </c>
       <c r="L1">
-        <v>0.52666666666666695</v>
+        <v>0.526666666666667</v>
       </c>
       <c r="M1">
-        <v>0.52666666666666695</v>
+        <v>0.526666666666667</v>
       </c>
       <c r="N1">
         <v>75</v>
       </c>
       <c r="O1">
-        <v>0.52666666666666695</v>
+        <v>0.526666666666667</v>
       </c>
       <c r="P1">
-        <v>0.52666666666666695</v>
+        <v>0.526666666666667</v>
       </c>
       <c r="Q1">
         <v>75</v>
       </c>
       <c r="R1">
-        <v>0.52666666666666695</v>
+        <v>0.526666666666667</v>
       </c>
       <c r="S1">
-        <v>0.52666666666666695</v>
+        <v>0.526666666666667</v>
       </c>
       <c r="T1">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,49 +1112,49 @@
         <v>0.487524329145749</v>
       </c>
       <c r="G2">
-        <v>75.666664123535199</v>
+        <v>75.6666641235352</v>
       </c>
       <c r="H2">
-        <v>0.48714824243386601</v>
+        <v>0.487148242433866</v>
       </c>
       <c r="I2">
-        <v>75.683331807454394</v>
+        <v>75.6833318074544</v>
       </c>
       <c r="J2">
-        <v>0.55816367002328204</v>
+        <v>0.558163670023282</v>
       </c>
       <c r="K2">
-        <v>72.058331807454394</v>
+        <v>72.0583318074544</v>
       </c>
       <c r="L2">
-        <v>0.46540278017520897</v>
+        <v>0.465402780175209</v>
       </c>
       <c r="M2">
-        <v>0.46540278017520897</v>
+        <v>0.465402780175209</v>
       </c>
       <c r="N2">
-        <v>76.741666158040402</v>
+        <v>76.7416661580404</v>
       </c>
       <c r="O2">
-        <v>0.46540278017520897</v>
+        <v>0.465402780175209</v>
       </c>
       <c r="P2">
-        <v>0.46540278017520897</v>
+        <v>0.465402780175209</v>
       </c>
       <c r="Q2">
-        <v>76.741666158040402</v>
+        <v>76.7416661580404</v>
       </c>
       <c r="R2">
-        <v>0.47242637207110699</v>
+        <v>0.472426372071107</v>
       </c>
       <c r="S2">
-        <v>0.47242637207110699</v>
+        <v>0.472426372071107</v>
       </c>
       <c r="T2">
-        <v>77.883333841959598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>77.8833338419596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1</v>
       </c>
@@ -542,52 +1171,52 @@
         <v>11.3333333333333</v>
       </c>
       <c r="F3">
-        <v>0.45479635546604802</v>
+        <v>0.454796355466048</v>
       </c>
       <c r="G3">
-        <v>77.258333841959598</v>
+        <v>77.2583338419596</v>
       </c>
       <c r="H3">
-        <v>0.45441364226738601</v>
+        <v>0.454413642267386</v>
       </c>
       <c r="I3">
-        <v>77.300000508626297</v>
+        <v>77.3000005086263</v>
       </c>
       <c r="J3">
-        <v>0.60395593551794702</v>
+        <v>0.603955935517947</v>
       </c>
       <c r="K3">
-        <v>69.766665140787794</v>
+        <v>69.7666651407878</v>
       </c>
       <c r="L3">
-        <v>0.52781637271245296</v>
+        <v>0.527816372712453</v>
       </c>
       <c r="M3">
-        <v>0.52781637271245296</v>
+        <v>0.527816372712453</v>
       </c>
       <c r="N3">
-        <v>74.916664123535199</v>
+        <v>74.9166641235352</v>
       </c>
       <c r="O3">
-        <v>0.52957233587900798</v>
+        <v>0.529572335879008</v>
       </c>
       <c r="P3">
-        <v>0.52957233587900798</v>
+        <v>0.529572335879008</v>
       </c>
       <c r="Q3">
-        <v>74.916664123535199</v>
+        <v>74.9166641235352</v>
       </c>
       <c r="R3">
-        <v>0.60622360070546499</v>
+        <v>0.606223600705465</v>
       </c>
       <c r="S3">
-        <v>0.60622360070546499</v>
+        <v>0.606223600705465</v>
       </c>
       <c r="T3">
-        <v>70.633331298828097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>70.6333312988281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>1</v>
       </c>
@@ -604,69 +1233,70 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>0.32379970920085899</v>
+        <v>0.323799709200859</v>
       </c>
       <c r="G4">
-        <v>83.816665649414105</v>
+        <v>83.8166656494141</v>
       </c>
       <c r="H4">
-        <v>0.32379970920085899</v>
+        <v>0.323799709200859</v>
       </c>
       <c r="I4">
-        <v>83.816665649414105</v>
+        <v>83.8166656494141</v>
       </c>
       <c r="J4">
-        <v>0.52324961841106399</v>
+        <v>0.523249618411064</v>
       </c>
       <c r="K4">
         <v>73.8333333333333</v>
       </c>
       <c r="L4">
-        <v>0.51395981649557798</v>
+        <v>0.513959816495578</v>
       </c>
       <c r="M4">
-        <v>0.51395981649557798</v>
+        <v>0.513959816495578</v>
       </c>
       <c r="N4">
-        <v>75.774998982747405</v>
+        <v>75.7749989827474</v>
       </c>
       <c r="O4">
-        <v>0.51395981649557798</v>
+        <v>0.513959816495578</v>
       </c>
       <c r="P4">
-        <v>0.51395981649557798</v>
+        <v>0.513959816495578</v>
       </c>
       <c r="Q4">
-        <v>75.774998982747405</v>
+        <v>75.7749989827474</v>
       </c>
       <c r="R4">
-        <v>0.55232324838638303</v>
+        <v>0.552323248386383</v>
       </c>
       <c r="S4">
-        <v>0.55232324838638303</v>
+        <v>0.552323248386383</v>
       </c>
       <c r="T4">
         <v>73.7083333333333</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" activeCellId="3" sqref="I31 F11 F17 H8"/>
+      <selection activeCell="H8" sqref="I31 F11 F17 H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -683,52 +1313,52 @@
         <v>16</v>
       </c>
       <c r="F1" s="1">
-        <v>0.53315187625090299</v>
+        <v>0.533151876250903</v>
       </c>
       <c r="G1" s="1">
-        <v>73.300000508626297</v>
+        <v>73.3000005086263</v>
       </c>
       <c r="H1" s="1">
-        <v>0.53315187370777095</v>
+        <v>0.533151873707771</v>
       </c>
       <c r="I1" s="1">
-        <v>73.300000508626297</v>
+        <v>73.3000005086263</v>
       </c>
       <c r="J1" s="1">
-        <v>0.55540902912616696</v>
+        <v>0.555409029126167</v>
       </c>
       <c r="K1" s="1">
-        <v>72.225001017252595</v>
+        <v>72.2250010172526</v>
       </c>
       <c r="L1" s="1">
-        <v>0.43496775070826199</v>
+        <v>0.434967750708262</v>
       </c>
       <c r="M1" s="1">
-        <v>0.43496775070826199</v>
-      </c>
-      <c r="N1" s="2">
-        <v>79.524998982747405</v>
+        <v>0.434967750708262</v>
+      </c>
+      <c r="N1" s="5">
+        <v>79.5249989827474</v>
       </c>
       <c r="O1" s="1">
-        <v>0.43496775070826199</v>
+        <v>0.434967750708262</v>
       </c>
       <c r="P1" s="1">
-        <v>0.43496775070826199</v>
+        <v>0.434967750708262</v>
       </c>
       <c r="Q1" s="1">
-        <v>79.524998982747405</v>
+        <v>79.5249989827474</v>
       </c>
       <c r="R1" s="1">
-        <v>0.51053268551826503</v>
+        <v>0.510532685518265</v>
       </c>
       <c r="S1" s="1">
-        <v>0.51053268551826503</v>
+        <v>0.510532685518265</v>
       </c>
       <c r="T1" s="1">
         <v>75.5416666666667</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -745,52 +1375,52 @@
         <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>0.58104497281710299</v>
+        <v>0.581044972817103</v>
       </c>
       <c r="G2" s="1">
-        <v>70.983334859212206</v>
+        <v>70.9833348592122</v>
       </c>
       <c r="H2" s="1">
-        <v>0.57438502875963804</v>
+        <v>0.574385028759638</v>
       </c>
       <c r="I2" s="1">
         <v>71.25</v>
       </c>
       <c r="J2" s="1">
-        <v>0.60960143196582794</v>
+        <v>0.609601431965828</v>
       </c>
       <c r="K2" s="1">
         <v>69.5416666666667</v>
       </c>
       <c r="L2" s="1">
-        <v>0.47952756047248801</v>
+        <v>0.479527560472488</v>
       </c>
       <c r="M2" s="1">
-        <v>0.47952756047248801</v>
-      </c>
-      <c r="N2" s="2">
-        <v>77.216667175292997</v>
+        <v>0.479527560472488</v>
+      </c>
+      <c r="N2" s="5">
+        <v>77.216667175293</v>
       </c>
       <c r="O2" s="1">
-        <v>0.49177770078182198</v>
+        <v>0.491777700781822</v>
       </c>
       <c r="P2" s="1">
-        <v>0.49177770078182198</v>
+        <v>0.491777700781822</v>
       </c>
       <c r="Q2" s="1">
-        <v>76.341664632161496</v>
+        <v>76.3416646321615</v>
       </c>
       <c r="R2" s="1">
-        <v>0.56782165288925202</v>
+        <v>0.567821652889252</v>
       </c>
       <c r="S2" s="1">
-        <v>0.56782165288925202</v>
+        <v>0.567821652889252</v>
       </c>
       <c r="T2" s="1">
-        <v>72.483332316080705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72.4833323160807</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -807,52 +1437,52 @@
         <v>12.6666666666667</v>
       </c>
       <c r="F3" s="1">
-        <v>0.48750110880533798</v>
+        <v>0.487501108805338</v>
       </c>
       <c r="G3" s="1">
-        <v>75.650001525878906</v>
+        <v>75.6500015258789</v>
       </c>
       <c r="H3" s="1">
-        <v>0.48750110880533798</v>
+        <v>0.487501108805338</v>
       </c>
       <c r="I3" s="1">
-        <v>75.650001525878906</v>
+        <v>75.6500015258789</v>
       </c>
       <c r="J3" s="1">
-        <v>0.52573673093318896</v>
+        <v>0.525736730933189</v>
       </c>
       <c r="K3" s="1">
-        <v>73.716669718424498</v>
+        <v>73.7166697184245</v>
       </c>
       <c r="L3" s="1">
-        <v>0.43465399368976498</v>
+        <v>0.434653993689765</v>
       </c>
       <c r="M3" s="1">
-        <v>0.43465399368976498</v>
-      </c>
-      <c r="N3" s="2">
-        <v>78.483332316080705</v>
+        <v>0.434653993689765</v>
+      </c>
+      <c r="N3" s="5">
+        <v>78.4833323160807</v>
       </c>
       <c r="O3" s="1">
-        <v>0.43465399368976498</v>
+        <v>0.434653993689765</v>
       </c>
       <c r="P3" s="1">
-        <v>0.43465399368976498</v>
+        <v>0.434653993689765</v>
       </c>
       <c r="Q3" s="1">
-        <v>78.483332316080705</v>
+        <v>78.4833323160807</v>
       </c>
       <c r="R3" s="1">
-        <v>0.54227615118026695</v>
+        <v>0.542276151180267</v>
       </c>
       <c r="S3" s="1">
-        <v>0.54227615118026695</v>
+        <v>0.542276151180267</v>
       </c>
       <c r="T3" s="1">
-        <v>74.266665140787794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74.2666651407878</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:20">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -869,78 +1499,79 @@
         <v>13</v>
       </c>
       <c r="F4" s="1">
-        <v>0.37021564749876701</v>
+        <v>0.370215647498767</v>
       </c>
       <c r="G4" s="1">
-        <v>81.608332316080705</v>
+        <v>81.6083323160807</v>
       </c>
       <c r="H4" s="1">
-        <v>0.35866196674108503</v>
+        <v>0.358661966741085</v>
       </c>
       <c r="I4" s="1">
         <v>82.2083333333333</v>
       </c>
       <c r="J4" s="1">
-        <v>0.49178302150964698</v>
+        <v>0.491783021509647</v>
       </c>
       <c r="K4" s="1">
-        <v>75.533335367838504</v>
+        <v>75.5333353678385</v>
       </c>
       <c r="L4" s="1">
-        <v>0.52696387012799595</v>
+        <v>0.526963870127996</v>
       </c>
       <c r="M4" s="1">
-        <v>0.52696387012799595</v>
-      </c>
-      <c r="N4" s="2">
+        <v>0.526963870127996</v>
+      </c>
+      <c r="N4" s="5">
         <v>75.0416666666667</v>
       </c>
       <c r="O4" s="1">
-        <v>0.53556508938471503</v>
+        <v>0.535565089384715</v>
       </c>
       <c r="P4" s="1">
-        <v>0.53556508938471503</v>
+        <v>0.535565089384715</v>
       </c>
       <c r="Q4" s="1">
-        <v>74.033332824707003</v>
+        <v>74.033332824707</v>
       </c>
       <c r="R4" s="1">
-        <v>0.54085000475247702</v>
+        <v>0.540850004752477</v>
       </c>
       <c r="S4" s="1">
-        <v>0.54085000475247702</v>
+        <v>0.540850004752477</v>
       </c>
       <c r="T4" s="1">
-        <v>73.974998474121094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>73.9749984741211</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1"/>
+    <row r="7" s="1" customFormat="1"/>
+    <row r="8" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1"/>
+    <row r="12" s="1" customFormat="1"/>
+    <row r="13" s="1" customFormat="1"/>
+    <row r="14" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F3CDA0-E645-4DBF-B49F-119B214FC7D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -954,13 +1585,13 @@
         <v>200</v>
       </c>
       <c r="E1" s="1">
-        <v>0.56782279475529995</v>
+        <v>0.5678227947553</v>
       </c>
       <c r="F1" s="1">
         <v>75</v>
       </c>
       <c r="G1" s="1">
-        <v>0.56693662325541205</v>
+        <v>0.566936623255412</v>
       </c>
       <c r="H1" s="1">
         <v>75</v>
@@ -969,7 +1600,7 @@
         <v>1.79351074369748</v>
       </c>
       <c r="J1" s="1">
-        <v>62.091665903727197</v>
+        <v>62.0916659037272</v>
       </c>
       <c r="K1" s="1">
         <v>0.573686393499374</v>
@@ -990,16 +1621,16 @@
         <v>75</v>
       </c>
       <c r="Q1" s="1">
-        <v>1.0617962793509199</v>
+        <v>1.06179627935092</v>
       </c>
       <c r="R1" s="1">
-        <v>1.0617962793509199</v>
+        <v>1.06179627935092</v>
       </c>
       <c r="S1" s="1">
-        <v>72.108332316080705</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>72.1083323160807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1013,22 +1644,22 @@
         <v>200</v>
       </c>
       <c r="E2" s="1">
-        <v>1.6001573883692399</v>
+        <v>1.60015738836924</v>
       </c>
       <c r="F2" s="1">
-        <v>56.274998982747398</v>
+        <v>56.2749989827474</v>
       </c>
       <c r="G2" s="1">
-        <v>1.5909241137504599</v>
+        <v>1.59092411375046</v>
       </c>
       <c r="H2" s="1">
-        <v>53.866666158040402</v>
+        <v>53.8666661580404</v>
       </c>
       <c r="I2" s="1">
-        <v>4.1224602492650302</v>
+        <v>4.12246024926503</v>
       </c>
       <c r="J2" s="1">
-        <v>64.658331553141295</v>
+        <v>64.6583315531413</v>
       </c>
       <c r="K2" s="1">
         <v>1.30753667573134</v>
@@ -1037,16 +1668,16 @@
         <v>1.30753667573134</v>
       </c>
       <c r="M2" s="1">
-        <v>67.749998728434207</v>
+        <v>67.7499987284342</v>
       </c>
       <c r="N2" s="1">
-        <v>0.72671971023082704</v>
+        <v>0.726719710230827</v>
       </c>
       <c r="O2" s="1">
-        <v>0.72671971023082704</v>
+        <v>0.726719710230827</v>
       </c>
       <c r="P2" s="1">
-        <v>73.183331807454394</v>
+        <v>73.1833318074544</v>
       </c>
       <c r="Q2" s="1">
         <v>1.54570958693822</v>
@@ -1055,10 +1686,10 @@
         <v>1.54570958693822</v>
       </c>
       <c r="S2" s="1">
-        <v>73.849998474121094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>73.8499984741211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1072,22 +1703,22 @@
         <v>200</v>
       </c>
       <c r="E3" s="1">
-        <v>1.8609179534912099</v>
+        <v>1.86091795349121</v>
       </c>
       <c r="F3" s="1">
         <v>61.625</v>
       </c>
       <c r="G3" s="1">
-        <v>1.8609179534912099</v>
+        <v>1.86091795349121</v>
       </c>
       <c r="H3" s="1">
         <v>61.625</v>
       </c>
       <c r="I3" s="1">
-        <v>4.2335167193412797</v>
+        <v>4.23351671934128</v>
       </c>
       <c r="J3" s="1">
-        <v>58.774998982747398</v>
+        <v>58.7749989827474</v>
       </c>
       <c r="K3" s="1">
         <v>1.42974013725917</v>
@@ -1096,7 +1727,7 @@
         <v>1.42974013725917</v>
       </c>
       <c r="M3" s="1">
-        <v>74.216667175292997</v>
+        <v>74.216667175293</v>
       </c>
       <c r="N3" s="1">
         <v>1.42974013725917</v>
@@ -1105,19 +1736,19 @@
         <v>1.42974013725917</v>
       </c>
       <c r="P3" s="1">
-        <v>74.216667175292997</v>
+        <v>74.216667175293</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.7262330762545299</v>
+        <v>1.72623307625453</v>
       </c>
       <c r="R3" s="1">
-        <v>1.7262330762545299</v>
+        <v>1.72623307625453</v>
       </c>
       <c r="S3" s="1">
-        <v>72.425000508626297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>72.4250005086263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1134,37 +1765,37 @@
         <v>1.52872702471415</v>
       </c>
       <c r="F4" s="1">
-        <v>61.866667429606103</v>
+        <v>61.8666674296061</v>
       </c>
       <c r="G4" s="1">
-        <v>1.5266360702514601</v>
+        <v>1.52663607025146</v>
       </c>
       <c r="H4" s="1">
-        <v>59.450000762939503</v>
+        <v>59.4500007629395</v>
       </c>
       <c r="I4" s="1">
-        <v>3.5233508893648802</v>
+        <v>3.52335088936488</v>
       </c>
       <c r="J4" s="1">
-        <v>57.166667938232401</v>
+        <v>57.1666679382324</v>
       </c>
       <c r="K4" s="1">
-        <v>2.1529750378926602</v>
+        <v>2.15297503789266</v>
       </c>
       <c r="L4" s="1">
-        <v>2.1529750378926602</v>
+        <v>2.15297503789266</v>
       </c>
       <c r="M4" s="1">
-        <v>70.008332570393904</v>
+        <v>70.0083325703939</v>
       </c>
       <c r="N4" s="1">
-        <v>1.8583879574139901</v>
+        <v>1.85838795741399</v>
       </c>
       <c r="O4" s="1">
-        <v>1.8583879574139901</v>
+        <v>1.85838795741399</v>
       </c>
       <c r="P4" s="1">
-        <v>68.025000254313198</v>
+        <v>68.0250002543132</v>
       </c>
       <c r="Q4" s="1">
         <v>2.75538398856918</v>
@@ -1173,26 +1804,27 @@
         <v>2.75538398856918</v>
       </c>
       <c r="S4" s="1">
-        <v>75.066665649414105</v>
+        <v>75.0666656494141</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I36" activeCellId="1" sqref="F38 I36"/>
+      <selection activeCell="I36" sqref="F38 I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1209,52 +1841,52 @@
         <v>35.6666666666667</v>
       </c>
       <c r="F1" s="1">
-        <v>0.45007502446430903</v>
-      </c>
-      <c r="G1" s="3">
-        <v>77.770261128743499</v>
+        <v>0.450075024464309</v>
+      </c>
+      <c r="G1" s="6">
+        <v>77.7702611287435</v>
       </c>
       <c r="H1" s="1">
-        <v>0.44896580680951098</v>
+        <v>0.448965806809511</v>
       </c>
       <c r="I1" s="1">
-        <v>77.910626729329394</v>
+        <v>77.9106267293294</v>
       </c>
       <c r="J1" s="1">
         <v>0.582616014744199</v>
       </c>
       <c r="K1" s="1">
-        <v>70.972958882649706</v>
+        <v>70.9729588826497</v>
       </c>
       <c r="L1" s="1">
-        <v>0.80812898598691496</v>
+        <v>0.808128985986915</v>
       </c>
       <c r="M1" s="1">
-        <v>0.80812898598691496</v>
+        <v>0.808128985986915</v>
       </c>
       <c r="N1" s="1">
         <v>59.8047472635905</v>
       </c>
       <c r="O1" s="1">
-        <v>0.80120458493950597</v>
+        <v>0.801204584939506</v>
       </c>
       <c r="P1" s="1">
-        <v>0.80120458493950597</v>
+        <v>0.801204584939506</v>
       </c>
       <c r="Q1" s="1">
-        <v>60.098846435546903</v>
+        <v>60.0988464355469</v>
       </c>
       <c r="R1" s="1">
-        <v>0.79451644741078897</v>
+        <v>0.794516447410789</v>
       </c>
       <c r="S1" s="1">
-        <v>0.79451644741078897</v>
+        <v>0.794516447410789</v>
       </c>
       <c r="T1" s="1">
-        <v>59.517397562662801</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59.5173975626628</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1271,52 +1903,52 @@
         <v>34.6666666666667</v>
       </c>
       <c r="F2" s="1">
-        <v>0.40658434276995897</v>
-      </c>
-      <c r="G2" s="3">
-        <v>79.982866923014299</v>
+        <v>0.406584342769959</v>
+      </c>
+      <c r="G2" s="6">
+        <v>79.9828669230143</v>
       </c>
       <c r="H2" s="1">
-        <v>0.40622192885227099</v>
+        <v>0.406221928852271</v>
       </c>
       <c r="I2" s="1">
-        <v>80.002914428710895</v>
+        <v>80.0029144287109</v>
       </c>
       <c r="J2" s="1">
-        <v>0.55881308389202999</v>
+        <v>0.55881308389203</v>
       </c>
       <c r="K2" s="1">
-        <v>72.116213480631501</v>
+        <v>72.1162134806315</v>
       </c>
       <c r="L2" s="1">
-        <v>0.77167530854543098</v>
+        <v>0.771675308545431</v>
       </c>
       <c r="M2" s="1">
-        <v>0.77167530854543098</v>
+        <v>0.771675308545431</v>
       </c>
       <c r="N2" s="1">
-        <v>60.533580780029297</v>
+        <v>60.5335807800293</v>
       </c>
       <c r="O2" s="1">
-        <v>0.78556647768584598</v>
+        <v>0.785566477685846</v>
       </c>
       <c r="P2" s="1">
-        <v>0.78556647768584598</v>
+        <v>0.785566477685846</v>
       </c>
       <c r="Q2" s="1">
-        <v>60.373195648193402</v>
+        <v>60.3731956481934</v>
       </c>
       <c r="R2" s="1">
-        <v>0.75146841970823097</v>
+        <v>0.751468419708231</v>
       </c>
       <c r="S2" s="1">
-        <v>0.75146841970823097</v>
+        <v>0.751468419708231</v>
       </c>
       <c r="T2" s="1">
-        <v>61.369083404541001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61.369083404541</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1333,52 +1965,52 @@
         <v>26.3333333333333</v>
       </c>
       <c r="F3" s="1">
-        <v>0.41046355227452103</v>
-      </c>
-      <c r="G3" s="3">
-        <v>79.969205220540402</v>
+        <v>0.410463552274521</v>
+      </c>
+      <c r="G3" s="6">
+        <v>79.9692052205404</v>
       </c>
       <c r="H3" s="1">
-        <v>0.41046355227452103</v>
+        <v>0.410463552274521</v>
       </c>
       <c r="I3" s="1">
-        <v>79.969205220540402</v>
+        <v>79.9692052205404</v>
       </c>
       <c r="J3" s="1">
-        <v>0.55895994610903399</v>
+        <v>0.558959946109034</v>
       </c>
       <c r="K3" s="1">
-        <v>72.135965983072893</v>
+        <v>72.1359659830729</v>
       </c>
       <c r="L3" s="1">
-        <v>0.94845805373243097</v>
+        <v>0.948458053732431</v>
       </c>
       <c r="M3" s="1">
-        <v>0.94845805373243097</v>
+        <v>0.948458053732431</v>
       </c>
       <c r="N3" s="1">
-        <v>53.268334706624401</v>
+        <v>53.2683347066244</v>
       </c>
       <c r="O3" s="1">
-        <v>0.94845805373243097</v>
+        <v>0.948458053732431</v>
       </c>
       <c r="P3" s="1">
-        <v>0.94845805373243097</v>
+        <v>0.948458053732431</v>
       </c>
       <c r="Q3" s="1">
-        <v>53.268334706624401</v>
+        <v>53.2683347066244</v>
       </c>
       <c r="R3" s="1">
-        <v>0.89623498115488298</v>
+        <v>0.896234981154883</v>
       </c>
       <c r="S3" s="1">
-        <v>0.89623498115488298</v>
+        <v>0.896234981154883</v>
       </c>
       <c r="T3" s="1">
-        <v>55.954929351806598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55.9549293518066</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:20">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1395,69 +2027,70 @@
         <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>0.82342186090971203</v>
-      </c>
-      <c r="G4" s="3">
-        <v>58.635138193766302</v>
+        <v>0.823421860909712</v>
+      </c>
+      <c r="G4" s="6">
+        <v>58.6351381937663</v>
       </c>
       <c r="H4" s="1">
-        <v>0.81530394262233996</v>
+        <v>0.81530394262234</v>
       </c>
       <c r="I4" s="1">
-        <v>59.216640472412102</v>
+        <v>59.2166404724121</v>
       </c>
       <c r="J4" s="1">
-        <v>0.85862109837150402</v>
+        <v>0.858621098371504</v>
       </c>
       <c r="K4" s="1">
-        <v>56.964216868082701</v>
+        <v>56.9642168680827</v>
       </c>
       <c r="L4" s="1">
-        <v>0.81301744810996501</v>
+        <v>0.813017448109965</v>
       </c>
       <c r="M4" s="1">
-        <v>0.81301744810996501</v>
+        <v>0.813017448109965</v>
       </c>
       <c r="N4" s="1">
-        <v>58.949296315511098</v>
+        <v>58.9492963155111</v>
       </c>
       <c r="O4" s="1">
-        <v>0.79228332190103401</v>
+        <v>0.792283321901034</v>
       </c>
       <c r="P4" s="1">
-        <v>0.79228332190103401</v>
+        <v>0.792283321901034</v>
       </c>
       <c r="Q4" s="1">
-        <v>60.894167582194001</v>
+        <v>60.894167582194</v>
       </c>
       <c r="R4" s="1">
-        <v>0.80451871823239096</v>
+        <v>0.804518718232391</v>
       </c>
       <c r="S4" s="1">
-        <v>0.80451871823239096</v>
+        <v>0.804518718232391</v>
       </c>
       <c r="T4" s="1">
-        <v>59.771246592203802</v>
+        <v>59.7712465922038</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A4552A-391E-4589-9B41-A66BDB4FD5E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1474,19 +2107,19 @@
         <v>22.6666666666667</v>
       </c>
       <c r="F1" s="1">
-        <v>0.84444104724522895</v>
+        <v>0.844441047245229</v>
       </c>
       <c r="G1" s="1">
-        <v>57.886591593424498</v>
+        <v>57.8865915934245</v>
       </c>
       <c r="H1" s="1">
-        <v>0.84380618034930399</v>
+        <v>0.843806180349304</v>
       </c>
       <c r="I1" s="1">
-        <v>57.913327534993499</v>
+        <v>57.9133275349935</v>
       </c>
       <c r="J1" s="1">
-        <v>0.87206025863301495</v>
+        <v>0.872060258633015</v>
       </c>
       <c r="K1" s="1">
         <v>56.2291653951009</v>
@@ -1497,14 +2130,14 @@
       <c r="M1" s="1">
         <v>0.79513824018099</v>
       </c>
-      <c r="N1" s="2">
-        <v>60.025279998779297</v>
+      <c r="N1" s="5">
+        <v>60.0252799987793</v>
       </c>
       <c r="O1" s="1">
-        <v>0.79443537259614605</v>
+        <v>0.794435372596146</v>
       </c>
       <c r="P1" s="1">
-        <v>0.79443537259614605</v>
+        <v>0.794435372596146</v>
       </c>
       <c r="Q1" s="1">
         <v>60.0052286783854</v>
@@ -1516,10 +2149,10 @@
         <v>0.833080876258112</v>
       </c>
       <c r="T1" s="1">
-        <v>58.835707346598298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58.8357073465983</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1536,52 +2169,52 @@
         <v>43.3333333333333</v>
       </c>
       <c r="F2" s="1">
-        <v>0.50446329457085404</v>
+        <v>0.504463294570854</v>
       </c>
       <c r="G2" s="1">
-        <v>74.822848002115904</v>
+        <v>74.8228480021159</v>
       </c>
       <c r="H2" s="1">
-        <v>0.50446329457085404</v>
+        <v>0.504463294570854</v>
       </c>
       <c r="I2" s="1">
-        <v>74.822848002115904</v>
+        <v>74.8228480021159</v>
       </c>
       <c r="J2" s="1">
-        <v>0.57917794597811401</v>
+        <v>0.579177945978114</v>
       </c>
       <c r="K2" s="1">
-        <v>71.173548380533902</v>
+        <v>71.1735483805339</v>
       </c>
       <c r="L2" s="1">
-        <v>0.74393676621939597</v>
+        <v>0.743936766219396</v>
       </c>
       <c r="M2" s="1">
-        <v>0.74393676621939597</v>
-      </c>
-      <c r="N2" s="2">
-        <v>63.333628336588497</v>
+        <v>0.743936766219396</v>
+      </c>
+      <c r="N2" s="5">
+        <v>63.3336283365885</v>
       </c>
       <c r="O2" s="1">
-        <v>0.74393676621939597</v>
+        <v>0.743936766219396</v>
       </c>
       <c r="P2" s="1">
-        <v>0.74393676621939597</v>
+        <v>0.743936766219396</v>
       </c>
       <c r="Q2" s="1">
-        <v>63.333628336588497</v>
+        <v>63.3336283365885</v>
       </c>
       <c r="R2" s="1">
-        <v>0.73462161870412901</v>
+        <v>0.734621618704129</v>
       </c>
       <c r="S2" s="1">
-        <v>0.73462161870412901</v>
+        <v>0.734621618704129</v>
       </c>
       <c r="T2" s="1">
-        <v>63.059661865234403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63.0596618652344</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1598,52 +2231,52 @@
         <v>48</v>
       </c>
       <c r="F3" s="1">
-        <v>0.45027796334159198</v>
+        <v>0.450277963341592</v>
       </c>
       <c r="G3" s="1">
         <v>77.6368815104167</v>
       </c>
       <c r="H3" s="1">
-        <v>0.45027796334159198</v>
+        <v>0.450277963341592</v>
       </c>
       <c r="I3" s="1">
         <v>77.6368815104167</v>
       </c>
       <c r="J3" s="1">
-        <v>0.55938614730759895</v>
+        <v>0.559386147307599</v>
       </c>
       <c r="K3" s="1">
-        <v>72.002344767252595</v>
+        <v>72.0023447672526</v>
       </c>
       <c r="L3" s="1">
-        <v>0.77565326613764596</v>
+        <v>0.775653266137646</v>
       </c>
       <c r="M3" s="1">
-        <v>0.77565326613764596</v>
-      </c>
-      <c r="N3" s="2">
-        <v>60.927658081054702</v>
+        <v>0.775653266137646</v>
+      </c>
+      <c r="N3" s="5">
+        <v>60.9276580810547</v>
       </c>
       <c r="O3" s="1">
-        <v>0.77565326613764596</v>
+        <v>0.775653266137646</v>
       </c>
       <c r="P3" s="1">
-        <v>0.77565326613764596</v>
+        <v>0.775653266137646</v>
       </c>
       <c r="Q3" s="1">
-        <v>60.927658081054702</v>
+        <v>60.9276580810547</v>
       </c>
       <c r="R3" s="1">
-        <v>0.73944659354866205</v>
+        <v>0.739446593548662</v>
       </c>
       <c r="S3" s="1">
-        <v>0.73944659354866205</v>
+        <v>0.739446593548662</v>
       </c>
       <c r="T3" s="1">
-        <v>61.983562469482401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61.9835624694824</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:20">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1660,22 +2293,22 @@
         <v>32.6666666666667</v>
       </c>
       <c r="F4" s="1">
-        <v>0.48754694869752602</v>
+        <v>0.487546948697526</v>
       </c>
       <c r="G4" s="1">
-        <v>75.878649393717495</v>
+        <v>75.8786493937175</v>
       </c>
       <c r="H4" s="1">
-        <v>0.47446379952978002</v>
+        <v>0.47446379952978</v>
       </c>
       <c r="I4" s="1">
-        <v>76.600527445475294</v>
+        <v>76.6005274454753</v>
       </c>
       <c r="J4" s="1">
-        <v>0.58235727764567702</v>
+        <v>0.582357277645677</v>
       </c>
       <c r="K4" s="1">
-        <v>70.946418762207003</v>
+        <v>70.946418762207</v>
       </c>
       <c r="L4" s="1">
         <v>0.820187611285076</v>
@@ -1683,46 +2316,47 @@
       <c r="M4" s="1">
         <v>0.820187611285076</v>
       </c>
-      <c r="N4" s="2">
-        <v>58.956061045328802</v>
+      <c r="N4" s="5">
+        <v>58.9560610453288</v>
       </c>
       <c r="O4" s="1">
-        <v>0.87620477522573204</v>
+        <v>0.876204775225732</v>
       </c>
       <c r="P4" s="1">
-        <v>0.87620477522573204</v>
+        <v>0.876204775225732</v>
       </c>
       <c r="Q4" s="1">
-        <v>56.676801045735701</v>
+        <v>56.6768010457357</v>
       </c>
       <c r="R4" s="1">
-        <v>0.82005302752217901</v>
+        <v>0.820053027522179</v>
       </c>
       <c r="S4" s="1">
-        <v>0.82005302752217901</v>
+        <v>0.820053027522179</v>
       </c>
       <c r="T4" s="1">
-        <v>59.664450327555301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>59.6644503275553</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF4A459-6EBB-42E4-95F8-5E65A68FCCB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1736,52 +2370,52 @@
         <v>200</v>
       </c>
       <c r="E1" s="1">
-        <v>0.68842019589452497</v>
+        <v>0.688420195894525</v>
       </c>
       <c r="F1" s="1">
         <v>52.8874918619792</v>
       </c>
       <c r="G1" s="1">
-        <v>0.68759135288738304</v>
+        <v>0.687591352887383</v>
       </c>
       <c r="H1" s="1">
-        <v>53.508983612060497</v>
+        <v>53.5089836120605</v>
       </c>
       <c r="I1" s="1">
-        <v>0.72159505484578501</v>
+        <v>0.721595054845785</v>
       </c>
       <c r="J1" s="1">
-        <v>54.585118611653598</v>
+        <v>54.5851186116536</v>
       </c>
       <c r="K1" s="1">
-        <v>0.68430807513575398</v>
+        <v>0.684308075135754</v>
       </c>
       <c r="L1" s="1">
-        <v>0.68430807513575398</v>
+        <v>0.684308075135754</v>
       </c>
       <c r="M1" s="1">
-        <v>52.693654378255196</v>
+        <v>52.6936543782552</v>
       </c>
       <c r="N1" s="1">
-        <v>0.68801876870534795</v>
+        <v>0.688018768705348</v>
       </c>
       <c r="O1" s="1">
-        <v>0.68801876870534795</v>
+        <v>0.688018768705348</v>
       </c>
       <c r="P1" s="1">
-        <v>53.081251780191998</v>
+        <v>53.081251780192</v>
       </c>
       <c r="Q1" s="1">
-        <v>0.70035939062795305</v>
+        <v>0.700359390627953</v>
       </c>
       <c r="R1" s="1">
-        <v>0.70035939062795305</v>
+        <v>0.700359390627953</v>
       </c>
       <c r="S1" s="1">
-        <v>54.772365570068402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54.7723655700684</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1798,19 +2432,19 @@
         <v>0.342290123093761</v>
       </c>
       <c r="F2" s="1">
-        <v>80.910858154296903</v>
+        <v>80.9108581542969</v>
       </c>
       <c r="G2" s="1">
-        <v>0.34030304788385501</v>
+        <v>0.340303047883855</v>
       </c>
       <c r="H2" s="1">
-        <v>80.516499837239607</v>
+        <v>80.5164998372396</v>
       </c>
       <c r="I2" s="1">
-        <v>0.42738120289572201</v>
+        <v>0.427381202895722</v>
       </c>
       <c r="J2" s="1">
-        <v>80.850850423177107</v>
+        <v>80.8508504231771</v>
       </c>
       <c r="K2" s="1">
         <v>1.16372740845526</v>
@@ -1831,16 +2465,16 @@
         <v>53.2750867207845</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.2711702777493401</v>
+        <v>1.27117027774934</v>
       </c>
       <c r="R2" s="1">
-        <v>1.2711702777493401</v>
+        <v>1.27117027774934</v>
       </c>
       <c r="S2" s="1">
-        <v>56.282711029052699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56.2827110290527</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1854,31 +2488,31 @@
         <v>200</v>
       </c>
       <c r="E3" s="1">
-        <v>9.7645903546449406E-2</v>
+        <v>0.0976459035464494</v>
       </c>
       <c r="F3" s="1">
-        <v>96.263799031575502</v>
+        <v>96.2637990315755</v>
       </c>
       <c r="G3" s="1">
-        <v>9.0403407688164197E-2</v>
+        <v>0.0904034076881642</v>
       </c>
       <c r="H3" s="1">
-        <v>96.624738057454394</v>
+        <v>96.6247380574544</v>
       </c>
       <c r="I3" s="1">
         <v>0.132805006912219</v>
       </c>
       <c r="J3" s="1">
-        <v>94.572911580403598</v>
+        <v>94.5729115804036</v>
       </c>
       <c r="K3" s="1">
-        <v>1.9424600017967999</v>
+        <v>1.9424600017968</v>
       </c>
       <c r="L3" s="1">
-        <v>1.9424600017967999</v>
+        <v>1.9424600017968</v>
       </c>
       <c r="M3" s="1">
-        <v>54.878835042317696</v>
+        <v>54.8788350423177</v>
       </c>
       <c r="N3" s="1">
         <v>1.94284034736695</v>
@@ -1887,19 +2521,19 @@
         <v>1.94284034736695</v>
       </c>
       <c r="P3" s="1">
-        <v>55.152880350748703</v>
+        <v>55.1528803507487</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.8869459744422701</v>
+        <v>1.88694597444227</v>
       </c>
       <c r="R3" s="1">
-        <v>1.8869459744422701</v>
+        <v>1.88694597444227</v>
       </c>
       <c r="S3" s="1">
-        <v>56.228991190592502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56.2289911905925</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:19">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1913,22 +2547,22 @@
         <v>200</v>
       </c>
       <c r="E4" s="1">
-        <v>0.14889536125545799</v>
+        <v>0.148895361255458</v>
       </c>
       <c r="F4" s="1">
-        <v>94.278778076171903</v>
+        <v>94.2787780761719</v>
       </c>
       <c r="G4" s="1">
         <v>0.147299261704257</v>
       </c>
       <c r="H4" s="1">
-        <v>94.706558227539006</v>
+        <v>94.706558227539</v>
       </c>
       <c r="I4" s="1">
-        <v>0.23926554137690501</v>
+        <v>0.239265541376905</v>
       </c>
       <c r="J4" s="1">
-        <v>90.074854532877595</v>
+        <v>90.0748545328776</v>
       </c>
       <c r="K4" s="1">
         <v>1.35949622302927</v>
@@ -1937,16 +2571,16 @@
         <v>1.35949622302927</v>
       </c>
       <c r="M4" s="1">
-        <v>55.059349060058601</v>
+        <v>55.0593490600586</v>
       </c>
       <c r="N4" s="1">
-        <v>1.4474485875457801</v>
+        <v>1.44744858754578</v>
       </c>
       <c r="O4" s="1">
-        <v>1.4474485875457801</v>
+        <v>1.44744858754578</v>
       </c>
       <c r="P4" s="1">
-        <v>53.809431711832701</v>
+        <v>53.8094317118327</v>
       </c>
       <c r="Q4" s="1">
         <v>1.31617319263438</v>
@@ -1959,22 +2593,553 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9135DB-BB85-46DD-82F8-A73642F11F9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" spans="1:20">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>109.666666666667</v>
+      </c>
+      <c r="E1" s="2">
+        <v>24.3333333333333</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.709444873677445</v>
+      </c>
+      <c r="G1" s="4">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0.70944487160224</v>
+      </c>
+      <c r="I1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="J1" s="2">
+        <v>0.70944487160224</v>
+      </c>
+      <c r="K1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="L1" s="2">
+        <v>0.666666667660078</v>
+      </c>
+      <c r="M1" s="2">
+        <v>0.666666667660078</v>
+      </c>
+      <c r="N1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="O1" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P1" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="R1" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S1" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="T1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:20">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.7094448757611</v>
+      </c>
+      <c r="G2" s="4">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.709443145092253</v>
+      </c>
+      <c r="I2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.70944487377561</v>
+      </c>
+      <c r="K2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.666666662693024</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.666666662693024</v>
+      </c>
+      <c r="N2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.666897880037626</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.666897880037626</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.666666662693024</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.666666662693024</v>
+      </c>
+      <c r="T2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:20">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2">
+        <v>28.6666666666667</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.709473028627321</v>
+      </c>
+      <c r="G3" s="4">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.709448238992327</v>
+      </c>
+      <c r="I3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.709448238992327</v>
+      </c>
+      <c r="K3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.666667314370473</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.666667314370473</v>
+      </c>
+      <c r="N3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.666666261355082</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.666666261355082</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.666666261355082</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.666666261355082</v>
+      </c>
+      <c r="T3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:20">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>52.6666666666667</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39.3333333333333</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.356289619822196</v>
+      </c>
+      <c r="G4" s="4">
+        <v>82.9960530598958</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.327339339903507</v>
+      </c>
+      <c r="I4" s="2">
+        <v>85.0376688639323</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.454665055391329</v>
+      </c>
+      <c r="K4" s="2">
+        <v>77.5997619628906</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.770842729012171</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.770842729012171</v>
+      </c>
+      <c r="N4" s="2">
+        <v>60.275681813558</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.752246973911921</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.752246973911921</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>59.5297063191732</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.686614316701889</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.686614316701889</v>
+      </c>
+      <c r="T4" s="2">
+        <v>63.8586781819661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" spans="1:20">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>97.6666666666667</v>
+      </c>
+      <c r="E1" s="2">
+        <v>24.6666666666667</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.709444875094339</v>
+      </c>
+      <c r="G1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0.709444871695692</v>
+      </c>
+      <c r="I1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="J1" s="2">
+        <v>0.709444871701213</v>
+      </c>
+      <c r="K1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="L1" s="2">
+        <v>0.666666667660077</v>
+      </c>
+      <c r="M1" s="2">
+        <v>0.666666667660077</v>
+      </c>
+      <c r="N1" s="3">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="O1" s="2">
+        <v>0.666666667660077</v>
+      </c>
+      <c r="P1" s="2">
+        <v>0.666666667660077</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="R1" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S1" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="T1" s="2">
+        <v>64.5277557373047</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:20">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>103</v>
+      </c>
+      <c r="E2" s="2">
+        <v>28.6666666666667</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.709444872832465</v>
+      </c>
+      <c r="G2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.709444591661554</v>
+      </c>
+      <c r="I2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.70944487160426</v>
+      </c>
+      <c r="K2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N2" s="3">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.66666712363561</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.66666712363561</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="T2" s="2">
+        <v>64.5277557373047</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:20">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>75.3333333333333</v>
+      </c>
+      <c r="E3" s="2">
+        <v>19.3333333333333</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.709445446826768</v>
+      </c>
+      <c r="G3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.709443755265438</v>
+      </c>
+      <c r="I3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.709445105263091</v>
+      </c>
+      <c r="K3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.666667714715004</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.666667714715004</v>
+      </c>
+      <c r="N3" s="3">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.666664335131645</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.666664335131645</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.666666919986407</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.666666919986407</v>
+      </c>
+      <c r="T3" s="2">
+        <v>64.5277557373047</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:20">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2">
+        <v>14.6666666666667</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.709449899359251</v>
+      </c>
+      <c r="G4" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.709446320780057</v>
+      </c>
+      <c r="I4" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.709446321341636</v>
+      </c>
+      <c r="K4" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.666661607225736</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.666661607225736</v>
+      </c>
+      <c r="N4" s="3">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.666665975252787</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.666665975252787</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>64.5277557373047</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.666665975252787</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.666665975252787</v>
+      </c>
+      <c r="T4" s="2">
+        <v>64.5277557373047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1988,31 +3153,31 @@
         <v>200</v>
       </c>
       <c r="E1" s="1">
-        <v>0.65471610354807497</v>
+        <v>0.654716103548075</v>
       </c>
       <c r="F1" s="1">
-        <v>64.527755737304702</v>
+        <v>64.5277557373047</v>
       </c>
       <c r="G1" s="1">
-        <v>0.65188376413906601</v>
+        <v>0.651883764139066</v>
       </c>
       <c r="H1" s="1">
-        <v>64.527755737304702</v>
+        <v>64.5277557373047</v>
       </c>
       <c r="I1" s="1">
-        <v>0.65679445488855304</v>
+        <v>0.656794454888553</v>
       </c>
       <c r="J1" s="1">
-        <v>64.211989084879605</v>
+        <v>64.2119890848796</v>
       </c>
       <c r="K1" s="1">
-        <v>0.63362016081810002</v>
+        <v>0.6336201608181</v>
       </c>
       <c r="L1" s="1">
-        <v>0.63362016081810002</v>
+        <v>0.6336201608181</v>
       </c>
       <c r="M1" s="1">
-        <v>64.527755737304702</v>
+        <v>64.5277557373047</v>
       </c>
       <c r="N1" s="1">
         <v>0.638769122958183</v>
@@ -2021,19 +3186,19 @@
         <v>0.638769122958183</v>
       </c>
       <c r="P1" s="1">
-        <v>64.527755737304702</v>
+        <v>64.5277557373047</v>
       </c>
       <c r="Q1" s="1">
-        <v>0.63559353748957303</v>
+        <v>0.635593537489573</v>
       </c>
       <c r="R1" s="1">
-        <v>0.63559353748957303</v>
+        <v>0.635593537489573</v>
       </c>
       <c r="S1" s="1">
-        <v>64.369780222574903</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64.3697802225749</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2047,52 +3212,52 @@
         <v>200</v>
       </c>
       <c r="E2" s="1">
-        <v>0.65477652360511895</v>
+        <v>0.654776523605119</v>
       </c>
       <c r="F2" s="1">
-        <v>64.369964599609403</v>
+        <v>64.3699645996094</v>
       </c>
       <c r="G2" s="1">
-        <v>0.65123766696916396</v>
+        <v>0.651237666969164</v>
       </c>
       <c r="H2" s="1">
-        <v>64.527755737304702</v>
+        <v>64.5277557373047</v>
       </c>
       <c r="I2" s="1">
-        <v>0.65538206621318296</v>
+        <v>0.655382066213183</v>
       </c>
       <c r="J2" s="1">
-        <v>63.857795715332003</v>
+        <v>63.857795715332</v>
       </c>
       <c r="K2" s="1">
-        <v>0.63005430897076897</v>
+        <v>0.630054308970769</v>
       </c>
       <c r="L2" s="1">
-        <v>0.63005430897076897</v>
+        <v>0.630054308970769</v>
       </c>
       <c r="M2" s="1">
-        <v>64.488306681315095</v>
+        <v>64.4883066813151</v>
       </c>
       <c r="N2" s="1">
-        <v>0.63484578629334798</v>
+        <v>0.634845786293348</v>
       </c>
       <c r="O2" s="1">
-        <v>0.63484578629334798</v>
+        <v>0.634845786293348</v>
       </c>
       <c r="P2" s="1">
-        <v>64.527755737304702</v>
+        <v>64.5277557373047</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.63336269259452804</v>
+        <v>0.633362692594528</v>
       </c>
       <c r="R2" s="1">
-        <v>0.63336269259452804</v>
+        <v>0.633362692594528</v>
       </c>
       <c r="S2" s="1">
-        <v>64.409459431966098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64.4094594319661</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2106,52 +3271,52 @@
         <v>200</v>
       </c>
       <c r="E3" s="1">
-        <v>0.65266567933258002</v>
+        <v>0.65266567933258</v>
       </c>
       <c r="F3" s="1">
-        <v>64.527755737304702</v>
+        <v>64.5277557373047</v>
       </c>
       <c r="G3" s="1">
-        <v>0.65055627964496399</v>
+        <v>0.650556279644964</v>
       </c>
       <c r="H3" s="1">
-        <v>64.527755737304702</v>
+        <v>64.5277557373047</v>
       </c>
       <c r="I3" s="1">
-        <v>0.65496218500318204</v>
+        <v>0.654962185003182</v>
       </c>
       <c r="J3" s="1">
-        <v>64.448954264322893</v>
+        <v>64.4489542643229</v>
       </c>
       <c r="K3" s="1">
-        <v>0.63042568862438197</v>
+        <v>0.630425688624382</v>
       </c>
       <c r="L3" s="1">
-        <v>0.63042568862438197</v>
+        <v>0.630425688624382</v>
       </c>
       <c r="M3" s="1">
-        <v>64.606651306152301</v>
+        <v>64.6066513061523</v>
       </c>
       <c r="N3" s="1">
-        <v>0.63519523143768297</v>
+        <v>0.635195231437683</v>
       </c>
       <c r="O3" s="1">
-        <v>0.63519523143768297</v>
+        <v>0.635195231437683</v>
       </c>
       <c r="P3" s="1">
-        <v>64.606651306152301</v>
+        <v>64.6066513061523</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.63668322563171398</v>
+        <v>0.636683225631714</v>
       </c>
       <c r="R3" s="1">
-        <v>0.63668322563171398</v>
+        <v>0.636683225631714</v>
       </c>
       <c r="S3" s="1">
-        <v>64.488355000813797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64.4883550008138</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:19">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2165,53 +3330,53 @@
         <v>200</v>
       </c>
       <c r="E4" s="1">
-        <v>0.50891001481800402</v>
+        <v>0.508910014818004</v>
       </c>
       <c r="F4" s="1">
-        <v>73.758524576822893</v>
+        <v>73.7585245768229</v>
       </c>
       <c r="G4" s="1">
-        <v>0.47815878409614698</v>
+        <v>0.478158784096147</v>
       </c>
       <c r="H4" s="1">
-        <v>74.665822347005204</v>
+        <v>74.6658223470052</v>
       </c>
       <c r="I4" s="1">
-        <v>0.51203565073049795</v>
+        <v>0.512035650730498</v>
       </c>
       <c r="J4" s="1">
-        <v>73.088425954182895</v>
+        <v>73.0884259541829</v>
       </c>
       <c r="K4" s="1">
-        <v>0.74010079701741505</v>
+        <v>0.740100797017415</v>
       </c>
       <c r="L4" s="1">
-        <v>0.74010079701741505</v>
+        <v>0.740100797017415</v>
       </c>
       <c r="M4" s="1">
-        <v>63.896591186523402</v>
+        <v>63.8965911865234</v>
       </c>
       <c r="N4" s="1">
-        <v>0.81037853360176104</v>
+        <v>0.810378533601761</v>
       </c>
       <c r="O4" s="1">
-        <v>0.81037853360176104</v>
+        <v>0.810378533601761</v>
       </c>
       <c r="P4" s="1">
-        <v>65.119471232096402</v>
+        <v>65.1194712320964</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.78562045892079702</v>
+        <v>0.785620458920797</v>
       </c>
       <c r="R4" s="1">
-        <v>0.78562045892079702</v>
+        <v>0.785620458920797</v>
       </c>
       <c r="S4" s="1">
-        <v>63.147131601969399</v>
+        <v>63.1471316019694</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>